--- a/angular/src/assets/sampleFiles/Calibration/MacroAnalysisData_Template2.xlsx
+++ b/angular/src/assets/sampleFiles/Calibration/MacroAnalysisData_Template2.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryemitan\Desktop\Dev\ECL Automation\ETI\App\Sample Uploads\Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PwC\Projects\SourceCode\Firs_9_ECL\FrontEnd\angular\src\assets\sampleFiles\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B5CF410-2BC1-406C-860B-35758CB5FE93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07A66A4-B634-482F-99B8-297121F2A872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Data " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -70,6 +68,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -113,7 +112,7 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -447,7 +446,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
